--- a/transportation_cost.xlsx
+++ b/transportation_cost.xlsx
@@ -9,10 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16170" windowHeight="6120"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16170" windowHeight="6120" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="solver_adj" localSheetId="0" hidden="1">Sheet1!$C$13:$F$15</definedName>
@@ -74,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="46">
   <si>
     <t>Demand 1</t>
   </si>
@@ -110,13 +113,115 @@
   </si>
   <si>
     <t>Supply</t>
+  </si>
+  <si>
+    <t>Oper Cost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cost </t>
+  </si>
+  <si>
+    <t>Years</t>
+  </si>
+  <si>
+    <t>Resell Value</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>m(T)</t>
+  </si>
+  <si>
+    <t>Depreciation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Cost </t>
+  </si>
+  <si>
+    <t>Average Cost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OC </t>
+  </si>
+  <si>
+    <t>RV</t>
+  </si>
+  <si>
+    <t>Sum of Cost</t>
+  </si>
+  <si>
+    <t>Cost-S</t>
+  </si>
+  <si>
+    <t>Total/year</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>ƩM(t)</t>
+  </si>
+  <si>
+    <t>Dep + Ʃ M(t)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oper cost </t>
+  </si>
+  <si>
+    <t>PV</t>
+  </si>
+  <si>
+    <t>PV of M(t)</t>
+  </si>
+  <si>
+    <t>Pv of M(t)</t>
+  </si>
+  <si>
+    <t>Dis</t>
+  </si>
+  <si>
+    <t>Cum PV</t>
+  </si>
+  <si>
+    <t>Cum Pv</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>MACHINE A</t>
+  </si>
+  <si>
+    <t>optimal sequence</t>
+  </si>
+  <si>
+    <t>T1</t>
+  </si>
+  <si>
+    <t>TO</t>
+  </si>
+  <si>
+    <t>IDLE</t>
+  </si>
+  <si>
+    <t>MACHINE B</t>
+  </si>
+  <si>
+    <t>JOBS</t>
+  </si>
+  <si>
+    <t>TI</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -156,6 +261,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="2" tint="-0.89999084444715716"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1" tint="4.9989318521683403E-2"/>
@@ -171,7 +283,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -190,8 +302,50 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -223,6 +377,19 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -262,14 +429,40 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -280,8 +473,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -289,14 +482,94 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -579,8 +852,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:M20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -594,20 +867,20 @@
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="8"/>
       <c r="B5" s="9"/>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14" t="s">
+      <c r="G5" s="15"/>
+      <c r="H5" s="15" t="s">
         <v>7</v>
       </c>
       <c r="I5" s="1"/>
@@ -692,8 +965,8 @@
       <c r="F9" s="5">
         <v>50</v>
       </c>
-      <c r="G9" s="10"/>
-      <c r="H9" s="13"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="14"/>
       <c r="L9" s="8"/>
       <c r="M9" s="8"/>
     </row>
@@ -814,8 +1087,8 @@
         <f>SUM(F13:F15)</f>
         <v>50</v>
       </c>
-      <c r="G16" s="10"/>
-      <c r="H16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="12"/>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" s="4" t="s">
@@ -833,7 +1106,7 @@
       <c r="F17" s="5">
         <v>50</v>
       </c>
-      <c r="G17" s="12"/>
+      <c r="G17" s="13"/>
       <c r="H17" s="8"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
@@ -854,4 +1127,1197 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C2:K16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7:I8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="12.7109375" customWidth="1"/>
+    <col min="7" max="7" width="13" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C2" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="10">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="3" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C3" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="17">
+        <v>1</v>
+      </c>
+      <c r="E3" s="17">
+        <v>2</v>
+      </c>
+      <c r="F3" s="17">
+        <v>3</v>
+      </c>
+      <c r="G3" s="17">
+        <v>4</v>
+      </c>
+      <c r="H3" s="17">
+        <v>5</v>
+      </c>
+      <c r="I3" s="17">
+        <v>6</v>
+      </c>
+      <c r="J3" s="17">
+        <v>7</v>
+      </c>
+      <c r="K3" s="17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C4" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="18">
+        <v>900</v>
+      </c>
+      <c r="E4" s="18">
+        <v>1200</v>
+      </c>
+      <c r="F4" s="18">
+        <v>1600</v>
+      </c>
+      <c r="G4" s="18">
+        <v>2100</v>
+      </c>
+      <c r="H4" s="18">
+        <v>2800</v>
+      </c>
+      <c r="I4" s="18">
+        <v>3700</v>
+      </c>
+      <c r="J4" s="18">
+        <v>4700</v>
+      </c>
+      <c r="K4" s="18">
+        <v>5900</v>
+      </c>
+    </row>
+    <row r="5" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C5" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="19">
+        <v>400</v>
+      </c>
+      <c r="E5" s="19">
+        <v>2000</v>
+      </c>
+      <c r="F5" s="19">
+        <v>1200</v>
+      </c>
+      <c r="G5" s="19">
+        <v>600</v>
+      </c>
+      <c r="H5" s="19">
+        <v>500</v>
+      </c>
+      <c r="I5" s="19">
+        <v>400</v>
+      </c>
+      <c r="J5" s="19">
+        <v>400</v>
+      </c>
+      <c r="K5" s="19">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="6" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C6" s="23"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="23"/>
+    </row>
+    <row r="7" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="D7" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" s="20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C8" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" s="21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C9" s="5">
+        <v>1</v>
+      </c>
+      <c r="D9" s="5">
+        <v>900</v>
+      </c>
+      <c r="E9" s="5">
+        <v>4000</v>
+      </c>
+      <c r="F9" s="5">
+        <f>D9</f>
+        <v>900</v>
+      </c>
+      <c r="G9" s="5">
+        <f>7000-E9</f>
+        <v>3000</v>
+      </c>
+      <c r="H9" s="5">
+        <f>G9+F9</f>
+        <v>3900</v>
+      </c>
+      <c r="I9" s="22">
+        <f>H9/C9</f>
+        <v>3900</v>
+      </c>
+    </row>
+    <row r="10" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C10" s="5">
+        <v>2</v>
+      </c>
+      <c r="D10" s="5">
+        <v>1200</v>
+      </c>
+      <c r="E10" s="5">
+        <v>2000</v>
+      </c>
+      <c r="F10" s="5">
+        <f>F9+D10</f>
+        <v>2100</v>
+      </c>
+      <c r="G10" s="5">
+        <f t="shared" ref="G10:G16" si="0">7000-E10</f>
+        <v>5000</v>
+      </c>
+      <c r="H10" s="5">
+        <f>G10+F10</f>
+        <v>7100</v>
+      </c>
+      <c r="I10" s="22">
+        <f t="shared" ref="I10:I16" si="1">H10/C10</f>
+        <v>3550</v>
+      </c>
+    </row>
+    <row r="11" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C11" s="5">
+        <v>3</v>
+      </c>
+      <c r="D11" s="5">
+        <v>1600</v>
+      </c>
+      <c r="E11" s="5">
+        <v>1200</v>
+      </c>
+      <c r="F11" s="5">
+        <f t="shared" ref="F11:F16" si="2">F10+D11</f>
+        <v>3700</v>
+      </c>
+      <c r="G11" s="5">
+        <f t="shared" si="0"/>
+        <v>5800</v>
+      </c>
+      <c r="H11" s="5">
+        <f t="shared" ref="H11:H16" si="3">G11+F11</f>
+        <v>9500</v>
+      </c>
+      <c r="I11" s="22">
+        <f t="shared" si="1"/>
+        <v>3166.6666666666665</v>
+      </c>
+    </row>
+    <row r="12" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C12" s="5">
+        <v>4</v>
+      </c>
+      <c r="D12" s="5">
+        <v>2100</v>
+      </c>
+      <c r="E12" s="5">
+        <v>600</v>
+      </c>
+      <c r="F12" s="5">
+        <f t="shared" si="2"/>
+        <v>5800</v>
+      </c>
+      <c r="G12" s="5">
+        <f t="shared" si="0"/>
+        <v>6400</v>
+      </c>
+      <c r="H12" s="5">
+        <f t="shared" si="3"/>
+        <v>12200</v>
+      </c>
+      <c r="I12" s="22">
+        <f t="shared" si="1"/>
+        <v>3050</v>
+      </c>
+    </row>
+    <row r="13" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C13" s="5">
+        <v>5</v>
+      </c>
+      <c r="D13" s="5">
+        <v>2800</v>
+      </c>
+      <c r="E13" s="5">
+        <v>500</v>
+      </c>
+      <c r="F13" s="5">
+        <f t="shared" si="2"/>
+        <v>8600</v>
+      </c>
+      <c r="G13" s="5">
+        <f t="shared" si="0"/>
+        <v>6500</v>
+      </c>
+      <c r="H13" s="5">
+        <f t="shared" si="3"/>
+        <v>15100</v>
+      </c>
+      <c r="I13" s="22">
+        <f t="shared" si="1"/>
+        <v>3020</v>
+      </c>
+    </row>
+    <row r="14" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C14" s="5">
+        <v>6</v>
+      </c>
+      <c r="D14" s="5">
+        <v>3700</v>
+      </c>
+      <c r="E14" s="5">
+        <v>400</v>
+      </c>
+      <c r="F14" s="5">
+        <f t="shared" si="2"/>
+        <v>12300</v>
+      </c>
+      <c r="G14" s="5">
+        <f t="shared" si="0"/>
+        <v>6600</v>
+      </c>
+      <c r="H14" s="5">
+        <f t="shared" si="3"/>
+        <v>18900</v>
+      </c>
+      <c r="I14" s="22">
+        <f t="shared" si="1"/>
+        <v>3150</v>
+      </c>
+    </row>
+    <row r="15" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C15" s="5">
+        <v>7</v>
+      </c>
+      <c r="D15" s="5">
+        <v>4700</v>
+      </c>
+      <c r="E15" s="5">
+        <v>400</v>
+      </c>
+      <c r="F15" s="5">
+        <f t="shared" si="2"/>
+        <v>17000</v>
+      </c>
+      <c r="G15" s="5">
+        <f t="shared" si="0"/>
+        <v>6600</v>
+      </c>
+      <c r="H15" s="5">
+        <f t="shared" si="3"/>
+        <v>23600</v>
+      </c>
+      <c r="I15" s="22">
+        <f t="shared" si="1"/>
+        <v>3371.4285714285716</v>
+      </c>
+    </row>
+    <row r="16" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C16" s="5">
+        <v>8</v>
+      </c>
+      <c r="D16" s="5">
+        <v>5900</v>
+      </c>
+      <c r="E16" s="5">
+        <v>400</v>
+      </c>
+      <c r="F16" s="5">
+        <f t="shared" si="2"/>
+        <v>22900</v>
+      </c>
+      <c r="G16" s="5">
+        <f t="shared" si="0"/>
+        <v>6600</v>
+      </c>
+      <c r="H16" s="5">
+        <f t="shared" si="3"/>
+        <v>29500</v>
+      </c>
+      <c r="I16" s="22">
+        <f t="shared" si="1"/>
+        <v>3687.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C2:K16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="5.5703125" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" customWidth="1"/>
+    <col min="8" max="8" width="13.85546875" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" customWidth="1"/>
+    <col min="10" max="10" width="12.140625" customWidth="1"/>
+    <col min="11" max="11" width="12.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="25">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="3" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C3" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="10">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="4" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C4" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="17">
+        <v>1</v>
+      </c>
+      <c r="E4" s="17">
+        <v>2</v>
+      </c>
+      <c r="F4" s="17">
+        <v>3</v>
+      </c>
+      <c r="G4" s="17">
+        <v>4</v>
+      </c>
+      <c r="H4" s="17">
+        <v>5</v>
+      </c>
+      <c r="I4" s="17">
+        <v>6</v>
+      </c>
+      <c r="J4" s="17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C5" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="19">
+        <v>400</v>
+      </c>
+      <c r="E5" s="19">
+        <v>500</v>
+      </c>
+      <c r="F5" s="19">
+        <v>700</v>
+      </c>
+      <c r="G5" s="19">
+        <v>1000</v>
+      </c>
+      <c r="H5" s="19">
+        <v>1289</v>
+      </c>
+      <c r="I5" s="19">
+        <v>1700</v>
+      </c>
+      <c r="J5" s="19">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="8" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="D8" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="I8" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="J8" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="K8" s="20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C9" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="21">
+        <v>0.09</v>
+      </c>
+      <c r="F9" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="J9" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="K9" s="21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C10" s="5">
+        <v>1</v>
+      </c>
+      <c r="D10" s="5">
+        <v>400</v>
+      </c>
+      <c r="E10" s="5">
+        <v>1</v>
+      </c>
+      <c r="F10" s="5">
+        <v>400</v>
+      </c>
+      <c r="G10" s="5">
+        <v>400</v>
+      </c>
+      <c r="H10" s="26">
+        <v>5000</v>
+      </c>
+      <c r="I10" s="5">
+        <f>H10+G10</f>
+        <v>5400</v>
+      </c>
+      <c r="J10" s="5">
+        <f>E10</f>
+        <v>1</v>
+      </c>
+      <c r="K10" s="5">
+        <f>I10/C10</f>
+        <v>5400</v>
+      </c>
+    </row>
+    <row r="11" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C11" s="5">
+        <v>2</v>
+      </c>
+      <c r="D11" s="5">
+        <v>500</v>
+      </c>
+      <c r="E11" s="22">
+        <f>1/POWER(1+$E$9,C10)</f>
+        <v>0.9174311926605504</v>
+      </c>
+      <c r="F11" s="5">
+        <f>D11*E11</f>
+        <v>458.71559633027522</v>
+      </c>
+      <c r="G11" s="5">
+        <f>G10+F11</f>
+        <v>858.71559633027528</v>
+      </c>
+      <c r="H11" s="26">
+        <v>5000</v>
+      </c>
+      <c r="I11" s="5">
+        <f t="shared" ref="I11:I16" si="0">H11+G11</f>
+        <v>5858.7155963302757</v>
+      </c>
+      <c r="J11" s="22">
+        <f>J10+E11</f>
+        <v>1.9174311926605503</v>
+      </c>
+      <c r="K11" s="5">
+        <f t="shared" ref="K11:K16" si="1">I11/C11</f>
+        <v>2929.3577981651379</v>
+      </c>
+    </row>
+    <row r="12" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C12" s="5">
+        <v>3</v>
+      </c>
+      <c r="D12" s="5">
+        <v>700</v>
+      </c>
+      <c r="E12" s="22">
+        <f t="shared" ref="E12:E16" si="2">1/POWER(1+$E$9,C11)</f>
+        <v>0.84167999326655996</v>
+      </c>
+      <c r="F12" s="5">
+        <f t="shared" ref="F12:F16" si="3">D12*E12</f>
+        <v>589.17599528659196</v>
+      </c>
+      <c r="G12" s="5">
+        <f t="shared" ref="G12:G16" si="4">G11+F12</f>
+        <v>1447.8915916168671</v>
+      </c>
+      <c r="H12" s="26">
+        <v>5000</v>
+      </c>
+      <c r="I12" s="5">
+        <f t="shared" si="0"/>
+        <v>6447.8915916168671</v>
+      </c>
+      <c r="J12" s="22">
+        <f t="shared" ref="J12:J16" si="5">J11+E12</f>
+        <v>2.75911118592711</v>
+      </c>
+      <c r="K12" s="5">
+        <f t="shared" si="1"/>
+        <v>2149.2971972056225</v>
+      </c>
+    </row>
+    <row r="13" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C13" s="5">
+        <v>4</v>
+      </c>
+      <c r="D13" s="5">
+        <v>1000</v>
+      </c>
+      <c r="E13" s="22">
+        <f t="shared" si="2"/>
+        <v>0.77218348006106419</v>
+      </c>
+      <c r="F13" s="5">
+        <f t="shared" si="3"/>
+        <v>772.18348006106419</v>
+      </c>
+      <c r="G13" s="5">
+        <f t="shared" si="4"/>
+        <v>2220.0750716779312</v>
+      </c>
+      <c r="H13" s="26">
+        <v>5000</v>
+      </c>
+      <c r="I13" s="5">
+        <f t="shared" si="0"/>
+        <v>7220.0750716779312</v>
+      </c>
+      <c r="J13" s="22">
+        <f t="shared" si="5"/>
+        <v>3.5312946659881743</v>
+      </c>
+      <c r="K13" s="5">
+        <f t="shared" si="1"/>
+        <v>1805.0187679194828</v>
+      </c>
+    </row>
+    <row r="14" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C14" s="5">
+        <v>5</v>
+      </c>
+      <c r="D14" s="5">
+        <v>1289</v>
+      </c>
+      <c r="E14" s="22">
+        <f t="shared" si="2"/>
+        <v>0.7084252110651964</v>
+      </c>
+      <c r="F14" s="5">
+        <f t="shared" si="3"/>
+        <v>913.16009706303817</v>
+      </c>
+      <c r="G14" s="5">
+        <f t="shared" si="4"/>
+        <v>3133.2351687409691</v>
+      </c>
+      <c r="H14" s="26">
+        <v>5000</v>
+      </c>
+      <c r="I14" s="5">
+        <f t="shared" si="0"/>
+        <v>8133.2351687409691</v>
+      </c>
+      <c r="J14" s="22">
+        <f t="shared" si="5"/>
+        <v>4.2397198770533704</v>
+      </c>
+      <c r="K14" s="5">
+        <f t="shared" si="1"/>
+        <v>1626.6470337481937</v>
+      </c>
+    </row>
+    <row r="15" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C15" s="5">
+        <v>6</v>
+      </c>
+      <c r="D15" s="5">
+        <v>1700</v>
+      </c>
+      <c r="E15" s="22">
+        <f t="shared" si="2"/>
+        <v>0.64993138629834524</v>
+      </c>
+      <c r="F15" s="5">
+        <f t="shared" si="3"/>
+        <v>1104.883356707187</v>
+      </c>
+      <c r="G15" s="5">
+        <f t="shared" si="4"/>
+        <v>4238.1185254481561</v>
+      </c>
+      <c r="H15" s="26">
+        <v>5000</v>
+      </c>
+      <c r="I15" s="5">
+        <f t="shared" si="0"/>
+        <v>9238.118525448157</v>
+      </c>
+      <c r="J15" s="22">
+        <f t="shared" si="5"/>
+        <v>4.8896512633517153</v>
+      </c>
+      <c r="K15" s="5">
+        <f t="shared" si="1"/>
+        <v>1539.6864209080261</v>
+      </c>
+    </row>
+    <row r="16" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C16" s="5">
+        <v>7</v>
+      </c>
+      <c r="D16" s="5">
+        <v>2100</v>
+      </c>
+      <c r="E16" s="22">
+        <f t="shared" si="2"/>
+        <v>0.5962673268792158</v>
+      </c>
+      <c r="F16" s="5">
+        <f t="shared" si="3"/>
+        <v>1252.1613864463532</v>
+      </c>
+      <c r="G16" s="5">
+        <f t="shared" si="4"/>
+        <v>5490.2799118945095</v>
+      </c>
+      <c r="H16" s="26">
+        <v>5000</v>
+      </c>
+      <c r="I16" s="5">
+        <f t="shared" si="0"/>
+        <v>10490.279911894509</v>
+      </c>
+      <c r="J16" s="22">
+        <f t="shared" si="5"/>
+        <v>5.4859185902309306</v>
+      </c>
+      <c r="K16" s="5">
+        <f t="shared" si="1"/>
+        <v>1498.6114159849299</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:M24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P3" sqref="P3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="11.85546875" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B2" s="8"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="8"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="29">
+        <v>1</v>
+      </c>
+      <c r="D3" s="29">
+        <v>2</v>
+      </c>
+      <c r="E3" s="29">
+        <v>3</v>
+      </c>
+      <c r="F3" s="29">
+        <v>4</v>
+      </c>
+      <c r="G3" s="29">
+        <v>5</v>
+      </c>
+      <c r="H3" s="29">
+        <v>6</v>
+      </c>
+      <c r="I3" s="29">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B4" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="30">
+        <v>3</v>
+      </c>
+      <c r="D4" s="30">
+        <v>12</v>
+      </c>
+      <c r="E4" s="30">
+        <v>15</v>
+      </c>
+      <c r="F4" s="30">
+        <v>6</v>
+      </c>
+      <c r="G4" s="30">
+        <v>10</v>
+      </c>
+      <c r="H4" s="30">
+        <v>11</v>
+      </c>
+      <c r="I4" s="30">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B5" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="30">
+        <v>8</v>
+      </c>
+      <c r="D5" s="30">
+        <v>10</v>
+      </c>
+      <c r="E5" s="30">
+        <v>10</v>
+      </c>
+      <c r="F5" s="30">
+        <v>6</v>
+      </c>
+      <c r="G5" s="30">
+        <v>12</v>
+      </c>
+      <c r="H5" s="30">
+        <v>1</v>
+      </c>
+      <c r="I5" s="30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B8" s="27"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C9" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="43"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C10" s="44">
+        <v>1</v>
+      </c>
+      <c r="D10" s="44">
+        <v>4</v>
+      </c>
+      <c r="E10" s="44">
+        <v>5</v>
+      </c>
+      <c r="F10" s="44">
+        <v>3</v>
+      </c>
+      <c r="G10" s="44">
+        <v>2</v>
+      </c>
+      <c r="H10" s="44">
+        <v>7</v>
+      </c>
+      <c r="I10" s="44">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F14" s="8"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G15" s="8"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G16" s="9"/>
+      <c r="H16" s="39"/>
+      <c r="I16" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="J16" s="37"/>
+      <c r="K16" s="40"/>
+      <c r="L16" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="M16" s="34"/>
+    </row>
+    <row r="17" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E17" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="G17" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="H17" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="I17" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="J17" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="K17" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="L17" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="M17" s="35" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E18" s="31">
+        <v>1</v>
+      </c>
+      <c r="F18" s="32">
+        <v>3</v>
+      </c>
+      <c r="G18" s="33">
+        <v>8</v>
+      </c>
+      <c r="H18" s="41">
+        <v>0</v>
+      </c>
+      <c r="I18" s="41">
+        <f>H18+F18</f>
+        <v>3</v>
+      </c>
+      <c r="J18" s="41">
+        <v>0</v>
+      </c>
+      <c r="K18" s="42">
+        <f>I18</f>
+        <v>3</v>
+      </c>
+      <c r="L18" s="42">
+        <f>K18+G18</f>
+        <v>11</v>
+      </c>
+      <c r="M18" s="16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E19" s="31">
+        <v>4</v>
+      </c>
+      <c r="F19" s="32">
+        <v>6</v>
+      </c>
+      <c r="G19" s="33">
+        <v>6</v>
+      </c>
+      <c r="H19" s="41">
+        <f>I18</f>
+        <v>3</v>
+      </c>
+      <c r="I19" s="41">
+        <f>H19+F19</f>
+        <v>9</v>
+      </c>
+      <c r="J19" s="41">
+        <v>0</v>
+      </c>
+      <c r="K19" s="42">
+        <f>IF(I19&gt;L18,I19,L18)</f>
+        <v>11</v>
+      </c>
+      <c r="L19" s="42">
+        <f t="shared" ref="L19:L24" si="0">K19+G19</f>
+        <v>17</v>
+      </c>
+      <c r="M19" s="16">
+        <f>IF(L18&gt;K19,0,(L18-K19))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E20" s="31">
+        <v>5</v>
+      </c>
+      <c r="F20" s="32">
+        <v>10</v>
+      </c>
+      <c r="G20" s="33">
+        <v>12</v>
+      </c>
+      <c r="H20" s="41">
+        <f>I19</f>
+        <v>9</v>
+      </c>
+      <c r="I20" s="41">
+        <f>H20+F20</f>
+        <v>19</v>
+      </c>
+      <c r="J20" s="41">
+        <v>0</v>
+      </c>
+      <c r="K20" s="42">
+        <f t="shared" ref="K20:K24" si="1">IF(I20&gt;L19,I20,L19)</f>
+        <v>19</v>
+      </c>
+      <c r="L20" s="42">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="M20" s="16">
+        <f>IF(L19&gt;K20,0,(K20-L19))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E21" s="31">
+        <v>3</v>
+      </c>
+      <c r="F21" s="32">
+        <v>15</v>
+      </c>
+      <c r="G21" s="33">
+        <v>10</v>
+      </c>
+      <c r="H21" s="41">
+        <f>I20</f>
+        <v>19</v>
+      </c>
+      <c r="I21" s="41">
+        <f>H21+F21</f>
+        <v>34</v>
+      </c>
+      <c r="J21" s="41">
+        <v>0</v>
+      </c>
+      <c r="K21" s="42">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+      <c r="L21" s="42">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="M21" s="16">
+        <f t="shared" ref="M21:M24" si="2">IF(L20&gt;K21,0,(K21-L20))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E22" s="31">
+        <v>2</v>
+      </c>
+      <c r="F22" s="32">
+        <v>12</v>
+      </c>
+      <c r="G22" s="33">
+        <v>10</v>
+      </c>
+      <c r="H22" s="41">
+        <f>I21</f>
+        <v>34</v>
+      </c>
+      <c r="I22" s="41">
+        <f>H22+F22</f>
+        <v>46</v>
+      </c>
+      <c r="J22" s="41">
+        <v>0</v>
+      </c>
+      <c r="K22" s="42">
+        <f t="shared" si="1"/>
+        <v>46</v>
+      </c>
+      <c r="L22" s="42">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="M22" s="16">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E23" s="31">
+        <v>7</v>
+      </c>
+      <c r="F23" s="32">
+        <v>9</v>
+      </c>
+      <c r="G23" s="33">
+        <v>3</v>
+      </c>
+      <c r="H23" s="41">
+        <f>I22</f>
+        <v>46</v>
+      </c>
+      <c r="I23" s="41">
+        <f>H23+F23</f>
+        <v>55</v>
+      </c>
+      <c r="J23" s="41">
+        <v>0</v>
+      </c>
+      <c r="K23" s="42">
+        <f t="shared" si="1"/>
+        <v>56</v>
+      </c>
+      <c r="L23" s="42">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="M23" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E24" s="31">
+        <v>8</v>
+      </c>
+      <c r="F24" s="32">
+        <v>11</v>
+      </c>
+      <c r="G24" s="33">
+        <v>1</v>
+      </c>
+      <c r="H24" s="41">
+        <f>I23</f>
+        <v>55</v>
+      </c>
+      <c r="I24" s="41">
+        <f>H24+F24</f>
+        <v>66</v>
+      </c>
+      <c r="J24" s="41">
+        <v>0</v>
+      </c>
+      <c r="K24" s="42">
+        <f t="shared" si="1"/>
+        <v>66</v>
+      </c>
+      <c r="L24" s="42">
+        <f t="shared" si="0"/>
+        <v>67</v>
+      </c>
+      <c r="M24" s="16">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>